--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il10-Il10rb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il10-Il10rb.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>36.26745966666667</v>
+        <v>2.070935</v>
       </c>
       <c r="H2">
-        <v>108.802379</v>
+        <v>6.212805</v>
       </c>
       <c r="I2">
-        <v>0.643144256662053</v>
+        <v>0.09632749399019591</v>
       </c>
       <c r="J2">
-        <v>0.643144256662053</v>
+        <v>0.09632749399019594</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>86.19469199999999</v>
+        <v>22.91402233333334</v>
       </c>
       <c r="N2">
-        <v>258.584076</v>
+        <v>68.74206700000001</v>
       </c>
       <c r="O2">
-        <v>0.4549003503256261</v>
+        <v>0.191813973987922</v>
       </c>
       <c r="P2">
-        <v>0.454900350325626</v>
+        <v>0.191813973987922</v>
       </c>
       <c r="Q2">
-        <v>3126.062515590756</v>
+        <v>47.45345084088167</v>
       </c>
       <c r="R2">
-        <v>28134.56264031681</v>
+        <v>427.081057567935</v>
       </c>
       <c r="S2">
-        <v>0.2925665476654823</v>
+        <v>0.01847695942655715</v>
       </c>
       <c r="T2">
-        <v>0.2925665476654822</v>
+        <v>0.01847695942655716</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>36.26745966666667</v>
+        <v>2.070935</v>
       </c>
       <c r="H3">
-        <v>108.802379</v>
+        <v>6.212805</v>
       </c>
       <c r="I3">
-        <v>0.643144256662053</v>
+        <v>0.09632749399019591</v>
       </c>
       <c r="J3">
-        <v>0.643144256662053</v>
+        <v>0.09632749399019594</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>27.867818</v>
       </c>
       <c r="O3">
-        <v>0.04902498393215362</v>
+        <v>0.07776078244711707</v>
       </c>
       <c r="P3">
-        <v>0.04902498393215361</v>
+        <v>0.07776078244711705</v>
       </c>
       <c r="Q3">
-        <v>336.8983217710025</v>
+        <v>19.23747988994333</v>
       </c>
       <c r="R3">
-        <v>3032.084895939022</v>
+        <v>173.13731900949</v>
       </c>
       <c r="S3">
-        <v>0.03153013684891403</v>
+        <v>0.007490501303847601</v>
       </c>
       <c r="T3">
-        <v>0.03153013684891402</v>
+        <v>0.007490501303847602</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>36.26745966666667</v>
+        <v>2.070935</v>
       </c>
       <c r="H4">
-        <v>108.802379</v>
+        <v>6.212805</v>
       </c>
       <c r="I4">
-        <v>0.643144256662053</v>
+        <v>0.09632749399019591</v>
       </c>
       <c r="J4">
-        <v>0.643144256662053</v>
+        <v>0.09632749399019594</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.659503</v>
+        <v>6.020714333333333</v>
       </c>
       <c r="N4">
-        <v>16.978509</v>
+        <v>18.062143</v>
       </c>
       <c r="O4">
-        <v>0.02986854338279824</v>
+        <v>0.05039958178109668</v>
       </c>
       <c r="P4">
-        <v>0.02986854338279823</v>
+        <v>0.05039958178109668</v>
       </c>
       <c r="Q4">
-        <v>205.2557967858791</v>
+        <v>12.46850803790167</v>
       </c>
       <c r="R4">
-        <v>1847.302171072911</v>
+        <v>112.216572341115</v>
       </c>
       <c r="S4">
-        <v>0.01920978213150806</v>
+        <v>0.004854865411126978</v>
       </c>
       <c r="T4">
-        <v>0.01920978213150805</v>
+        <v>0.004854865411126979</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>36.26745966666667</v>
+        <v>2.070935</v>
       </c>
       <c r="H5">
-        <v>108.802379</v>
+        <v>6.212805</v>
       </c>
       <c r="I5">
-        <v>0.643144256662053</v>
+        <v>0.09632749399019591</v>
       </c>
       <c r="J5">
-        <v>0.643144256662053</v>
+        <v>0.09632749399019594</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>88.33691399999999</v>
+        <v>81.23559966666666</v>
       </c>
       <c r="N5">
-        <v>265.010742</v>
+        <v>243.706799</v>
       </c>
       <c r="O5">
-        <v>0.4662061223594222</v>
+        <v>0.6800256617838641</v>
       </c>
       <c r="P5">
-        <v>0.4662061223594221</v>
+        <v>0.6800256617838643</v>
       </c>
       <c r="Q5">
-        <v>3203.755465572802</v>
+        <v>168.2336465956883</v>
       </c>
       <c r="R5">
-        <v>28833.79919015522</v>
+        <v>1514.102819361195</v>
       </c>
       <c r="S5">
-        <v>0.2998377900161487</v>
+        <v>0.06550516784866417</v>
       </c>
       <c r="T5">
-        <v>0.2998377900161486</v>
+        <v>0.0655051678486642</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>9.627425000000001</v>
       </c>
       <c r="I6">
-        <v>0.05690889438359308</v>
+        <v>0.1492700517445119</v>
       </c>
       <c r="J6">
-        <v>0.05690889438359308</v>
+        <v>0.1492700517445119</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.19469199999999</v>
+        <v>22.91402233333334</v>
       </c>
       <c r="N6">
-        <v>258.584076</v>
+        <v>68.74206700000001</v>
       </c>
       <c r="O6">
-        <v>0.4549003503256261</v>
+        <v>0.191813973987922</v>
       </c>
       <c r="P6">
-        <v>0.454900350325626</v>
+        <v>0.191813973987922</v>
       </c>
       <c r="Q6">
-        <v>276.6109775427</v>
+        <v>73.53434382083057</v>
       </c>
       <c r="R6">
-        <v>2489.4987978843</v>
+        <v>661.8090943874751</v>
       </c>
       <c r="S6">
-        <v>0.02588787599174055</v>
+        <v>0.02863208182249757</v>
       </c>
       <c r="T6">
-        <v>0.02588787599174054</v>
+        <v>0.02863208182249758</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>9.627425000000001</v>
       </c>
       <c r="I7">
-        <v>0.05690889438359308</v>
+        <v>0.1492700517445119</v>
       </c>
       <c r="J7">
-        <v>0.05690889438359308</v>
+        <v>0.1492700517445119</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>27.867818</v>
       </c>
       <c r="O7">
-        <v>0.04902498393215362</v>
+        <v>0.07776078244711707</v>
       </c>
       <c r="P7">
-        <v>0.04902498393215361</v>
+        <v>0.07776078244711705</v>
       </c>
       <c r="Q7">
         <v>29.81059196762778</v>
@@ -883,10 +883,10 @@
         <v>268.29532770865</v>
       </c>
       <c r="S7">
-        <v>0.002789957632752278</v>
+        <v>0.01160735601957489</v>
       </c>
       <c r="T7">
-        <v>0.002789957632752277</v>
+        <v>0.01160735601957489</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>9.627425000000001</v>
       </c>
       <c r="I8">
-        <v>0.05690889438359308</v>
+        <v>0.1492700517445119</v>
       </c>
       <c r="J8">
-        <v>0.05690889438359308</v>
+        <v>0.1492700517445119</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.659503</v>
+        <v>6.020714333333333</v>
       </c>
       <c r="N8">
-        <v>16.978509</v>
+        <v>18.062143</v>
       </c>
       <c r="O8">
-        <v>0.02986854338279824</v>
+        <v>0.05039958178109668</v>
       </c>
       <c r="P8">
-        <v>0.02986854338279823</v>
+        <v>0.05039958178109668</v>
       </c>
       <c r="Q8">
-        <v>18.162146889925</v>
+        <v>19.32132523019722</v>
       </c>
       <c r="R8">
-        <v>163.459322009325</v>
+        <v>173.891927071775</v>
       </c>
       <c r="S8">
-        <v>0.001699785780763433</v>
+        <v>0.007523148180366058</v>
       </c>
       <c r="T8">
-        <v>0.001699785780763432</v>
+        <v>0.00752314818036606</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>9.627425000000001</v>
       </c>
       <c r="I9">
-        <v>0.05690889438359308</v>
+        <v>0.1492700517445119</v>
       </c>
       <c r="J9">
-        <v>0.05690889438359308</v>
+        <v>0.1492700517445119</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>88.33691399999999</v>
+        <v>81.23559966666666</v>
       </c>
       <c r="N9">
-        <v>265.010742</v>
+        <v>243.706799</v>
       </c>
       <c r="O9">
-        <v>0.4662061223594222</v>
+        <v>0.6800256617838641</v>
       </c>
       <c r="P9">
-        <v>0.4662061223594221</v>
+        <v>0.6800256617838643</v>
       </c>
       <c r="Q9">
-        <v>283.48567142215</v>
+        <v>260.6965477069528</v>
       </c>
       <c r="R9">
-        <v>2551.37104279935</v>
+        <v>2346.268929362575</v>
       </c>
       <c r="S9">
-        <v>0.02653127497833683</v>
+        <v>0.1015074657220733</v>
       </c>
       <c r="T9">
-        <v>0.02653127497833682</v>
+        <v>0.1015074657220734</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.927863</v>
+        <v>1.134776333333333</v>
       </c>
       <c r="H10">
-        <v>2.783589</v>
+        <v>3.404329</v>
       </c>
       <c r="I10">
-        <v>0.01645413725978976</v>
+        <v>0.05278299919088877</v>
       </c>
       <c r="J10">
-        <v>0.01645413725978976</v>
+        <v>0.05278299919088877</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.19469199999999</v>
+        <v>22.91402233333334</v>
       </c>
       <c r="N10">
-        <v>258.584076</v>
+        <v>68.74206700000001</v>
       </c>
       <c r="O10">
-        <v>0.4549003503256261</v>
+        <v>0.191813973987922</v>
       </c>
       <c r="P10">
-        <v>0.454900350325626</v>
+        <v>0.191813973987922</v>
       </c>
       <c r="Q10">
-        <v>79.976865503196</v>
+        <v>26.00229024533811</v>
       </c>
       <c r="R10">
-        <v>719.791789528764</v>
+        <v>234.020612208043</v>
       </c>
       <c r="S10">
-        <v>0.007484992803784299</v>
+        <v>0.01012451683380565</v>
       </c>
       <c r="T10">
-        <v>0.0074849928037843</v>
+        <v>0.01012451683380565</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.927863</v>
+        <v>1.134776333333333</v>
       </c>
       <c r="H11">
-        <v>2.783589</v>
+        <v>3.404329</v>
       </c>
       <c r="I11">
-        <v>0.01645413725978976</v>
+        <v>0.05278299919088877</v>
       </c>
       <c r="J11">
-        <v>0.01645413725978976</v>
+        <v>0.05278299919088877</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>27.867818</v>
       </c>
       <c r="O11">
-        <v>0.04902498393215362</v>
+        <v>0.07776078244711707</v>
       </c>
       <c r="P11">
-        <v>0.04902498393215361</v>
+        <v>0.07776078244711705</v>
       </c>
       <c r="Q11">
-        <v>8.619172404311334</v>
+        <v>10.54124677601356</v>
       </c>
       <c r="R11">
-        <v>77.572551638802</v>
+        <v>94.871220984122</v>
       </c>
       <c r="S11">
-        <v>0.0008066638147786432</v>
+        <v>0.004104447316989057</v>
       </c>
       <c r="T11">
-        <v>0.0008066638147786431</v>
+        <v>0.004104447316989057</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.927863</v>
+        <v>1.134776333333333</v>
       </c>
       <c r="H12">
-        <v>2.783589</v>
+        <v>3.404329</v>
       </c>
       <c r="I12">
-        <v>0.01645413725978976</v>
+        <v>0.05278299919088877</v>
       </c>
       <c r="J12">
-        <v>0.01645413725978976</v>
+        <v>0.05278299919088877</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.659503</v>
+        <v>6.020714333333333</v>
       </c>
       <c r="N12">
-        <v>16.978509</v>
+        <v>18.062143</v>
       </c>
       <c r="O12">
-        <v>0.02986854338279824</v>
+        <v>0.05039958178109668</v>
       </c>
       <c r="P12">
-        <v>0.02986854338279823</v>
+        <v>0.05039958178109668</v>
       </c>
       <c r="Q12">
-        <v>5.251243432089</v>
+        <v>6.832164135227445</v>
       </c>
       <c r="R12">
-        <v>47.261190888801</v>
+        <v>61.489477217047</v>
       </c>
       <c r="S12">
-        <v>0.0004914611125705474</v>
+        <v>0.002660241084372758</v>
       </c>
       <c r="T12">
-        <v>0.0004914611125705473</v>
+        <v>0.002660241084372759</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.927863</v>
+        <v>1.134776333333333</v>
       </c>
       <c r="H13">
-        <v>2.783589</v>
+        <v>3.404329</v>
       </c>
       <c r="I13">
-        <v>0.01645413725978976</v>
+        <v>0.05278299919088877</v>
       </c>
       <c r="J13">
-        <v>0.01645413725978976</v>
+        <v>0.05278299919088877</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>88.33691399999999</v>
+        <v>81.23559966666666</v>
       </c>
       <c r="N13">
-        <v>265.010742</v>
+        <v>243.706799</v>
       </c>
       <c r="O13">
-        <v>0.4662061223594222</v>
+        <v>0.6800256617838641</v>
       </c>
       <c r="P13">
-        <v>0.4662061223594221</v>
+        <v>0.6800256617838643</v>
       </c>
       <c r="Q13">
-        <v>81.964554034782</v>
+        <v>92.18423592587455</v>
       </c>
       <c r="R13">
-        <v>737.680986313038</v>
+        <v>829.658123332871</v>
       </c>
       <c r="S13">
-        <v>0.007671019528656272</v>
+        <v>0.0358937939557213</v>
       </c>
       <c r="T13">
-        <v>0.007671019528656273</v>
+        <v>0.03589379395572131</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.98639866666667</v>
+        <v>15.08404533333333</v>
       </c>
       <c r="H14">
-        <v>47.95919600000001</v>
+        <v>45.252136</v>
       </c>
       <c r="I14">
-        <v>0.2834927116945641</v>
+        <v>0.7016194550744034</v>
       </c>
       <c r="J14">
-        <v>0.2834927116945642</v>
+        <v>0.7016194550744034</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>86.19469199999999</v>
+        <v>22.91402233333334</v>
       </c>
       <c r="N14">
-        <v>258.584076</v>
+        <v>68.74206700000001</v>
       </c>
       <c r="O14">
-        <v>0.4549003503256261</v>
+        <v>0.191813973987922</v>
       </c>
       <c r="P14">
-        <v>0.454900350325626</v>
+        <v>0.191813973987922</v>
       </c>
       <c r="Q14">
-        <v>1377.942709262544</v>
+        <v>345.6361516450125</v>
       </c>
       <c r="R14">
-        <v>12401.4843833629</v>
+        <v>3110.725364805112</v>
       </c>
       <c r="S14">
-        <v>0.1289609338646189</v>
+        <v>0.1345804159050616</v>
       </c>
       <c r="T14">
-        <v>0.128960933864619</v>
+        <v>0.1345804159050616</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.98639866666667</v>
+        <v>15.08404533333333</v>
       </c>
       <c r="H15">
-        <v>47.95919600000001</v>
+        <v>45.252136</v>
       </c>
       <c r="I15">
-        <v>0.2834927116945641</v>
+        <v>0.7016194550744034</v>
       </c>
       <c r="J15">
-        <v>0.2834927116945642</v>
+        <v>0.7016194550744034</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>27.867818</v>
       </c>
       <c r="O15">
-        <v>0.04902498393215362</v>
+        <v>0.07776078244711707</v>
       </c>
       <c r="P15">
-        <v>0.04902498393215361</v>
+        <v>0.07776078244711705</v>
       </c>
       <c r="Q15">
-        <v>148.5020161727031</v>
+        <v>140.1198100176942</v>
       </c>
       <c r="R15">
-        <v>1336.518145554328</v>
+        <v>1261.078290159248</v>
       </c>
       <c r="S15">
-        <v>0.01389822563570866</v>
+        <v>0.05455847780670551</v>
       </c>
       <c r="T15">
-        <v>0.01389822563570866</v>
+        <v>0.0545584778067055</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.98639866666667</v>
+        <v>15.08404533333333</v>
       </c>
       <c r="H16">
-        <v>47.95919600000001</v>
+        <v>45.252136</v>
       </c>
       <c r="I16">
-        <v>0.2834927116945641</v>
+        <v>0.7016194550744034</v>
       </c>
       <c r="J16">
-        <v>0.2834927116945642</v>
+        <v>0.7016194550744034</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.659503</v>
+        <v>6.020714333333333</v>
       </c>
       <c r="N16">
-        <v>16.978509</v>
+        <v>18.062143</v>
       </c>
       <c r="O16">
-        <v>0.02986854338279824</v>
+        <v>0.05039958178109668</v>
       </c>
       <c r="P16">
-        <v>0.02986854338279823</v>
+        <v>0.05039958178109668</v>
       </c>
       <c r="Q16">
-        <v>90.475071213196</v>
+        <v>90.81672794304978</v>
       </c>
       <c r="R16">
-        <v>814.275640918764</v>
+        <v>817.350551487448</v>
       </c>
       <c r="S16">
-        <v>0.008467514357956202</v>
+        <v>0.03536132710523088</v>
       </c>
       <c r="T16">
-        <v>0.008467514357956202</v>
+        <v>0.03536132710523088</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.98639866666667</v>
+        <v>15.08404533333333</v>
       </c>
       <c r="H17">
-        <v>47.95919600000001</v>
+        <v>45.252136</v>
       </c>
       <c r="I17">
-        <v>0.2834927116945641</v>
+        <v>0.7016194550744034</v>
       </c>
       <c r="J17">
-        <v>0.2834927116945642</v>
+        <v>0.7016194550744034</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>88.33691399999999</v>
+        <v>81.23559966666666</v>
       </c>
       <c r="N17">
-        <v>265.010742</v>
+        <v>243.706799</v>
       </c>
       <c r="O17">
-        <v>0.4662061223594222</v>
+        <v>0.6800256617838641</v>
       </c>
       <c r="P17">
-        <v>0.4662061223594221</v>
+        <v>0.6800256617838643</v>
       </c>
       <c r="Q17">
-        <v>1412.189124187048</v>
+        <v>1225.361468052518</v>
       </c>
       <c r="R17">
-        <v>12709.70211768343</v>
+        <v>11028.25321247266</v>
       </c>
       <c r="S17">
-        <v>0.1321660378362804</v>
+        <v>0.4771192342574053</v>
       </c>
       <c r="T17">
-        <v>0.1321660378362804</v>
+        <v>0.4771192342574054</v>
       </c>
     </row>
   </sheetData>
